--- a/short simulation.xlsx
+++ b/short simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\alphaAdvantageApi\ReadyLoopPresentationServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{407FEC84-6145-4BD2-916D-A176D4BF2CF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4DDE506-B715-4744-89A9-E4F3FCD66129}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2A67F4AE-9743-4EE0-8206-D47AC52CE7C7}"/>
   </bookViews>
@@ -17,9 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$3:$E$154</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$154</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$3:$E$154</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$3:$E$154</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,13 +37,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +100,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1060,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78657852-1E78-46AC-A379-2C7DD4A5F393}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,6 +3696,45 @@
         <v>0.109998507529947</v>
       </c>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
